--- a/data/bags_data.xlsx
+++ b/data/bags_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11206"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescabianchessi/Documents/UNIVERSITA/DSBA_2/FINANCE/GROUP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cirib\repos\FinTech-\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082FF543-4482-5148-955B-47EE464945FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E19586C-CDF0-4562-B00D-617DC57CD5F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E0A7485A-1DF5-F745-946E-F7879EFA88CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E0A7485A-1DF5-F745-946E-F7879EFA88CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,9 +38,6 @@
     <t>weight</t>
   </si>
   <si>
-    <t xml:space="preserve">recycle </t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -82,6 +78,9 @@
   </si>
   <si>
     <t>Di Marco</t>
+  </si>
+  <si>
+    <t>recycle</t>
   </si>
 </sst>
 </file>
@@ -435,570 +434,568 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41ADD0C1-F80F-FA4B-B049-B60563A2DB41}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>7</v>
       </c>
       <c r="D17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
       </c>
       <c r="C20">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
         <v>13</v>
       </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
         <v>14</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
         <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
       </c>
       <c r="C29">
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
         <v>8</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31">
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
         <v>8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="D37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
         <v>13</v>
       </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>7</v>
       </c>
-      <c r="B39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
       </c>
       <c r="C40">
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
